--- a/data/output/tables/consumo_privado.xlsx
+++ b/data/output/tables/consumo_privado.xlsx
@@ -22,22 +22,22 @@
     <t>test_rmse</t>
   </si>
   <si>
+    <t>arima</t>
+  </si>
+  <si>
+    <t>ar</t>
+  </si>
+  <si>
+    <t>lr</t>
+  </si>
+  <si>
+    <t>knn</t>
+  </si>
+  <si>
     <t>rf</t>
   </si>
   <si>
-    <t>knn</t>
-  </si>
-  <si>
     <t>xgb</t>
-  </si>
-  <si>
-    <t>ar</t>
-  </si>
-  <si>
-    <t>arima</t>
-  </si>
-  <si>
-    <t>lr</t>
   </si>
   <si>
     <t>ann</t>
@@ -417,10 +417,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>1236.523814543438</v>
+        <v>633.9017213590852</v>
       </c>
       <c r="C2">
-        <v>1107.532173969898</v>
+        <v>1625.696012953259</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -428,10 +428,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>2139.872932626599</v>
+        <v>623.7810963061639</v>
       </c>
       <c r="C3">
-        <v>1563.974500607347</v>
+        <v>1636.926646468726</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -439,10 +439,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>491.6926814643649</v>
+        <v>2203.704589214644</v>
       </c>
       <c r="C4">
-        <v>1830.835089546387</v>
+        <v>2880.644073297382</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -450,10 +450,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>911.6861023612607</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>3050.890672933184</v>
+        <v>3641.779390509458</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -461,10 +461,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>754.5331404448667</v>
+        <v>1055.194251555317</v>
       </c>
       <c r="C6">
-        <v>3603.808169061785</v>
+        <v>3794.468010626767</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -472,10 +472,10 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>2462.651909404348</v>
+        <v>905.8445639861723</v>
       </c>
       <c r="C7">
-        <v>3724.449185501054</v>
+        <v>4366.60950402903</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -483,10 +483,10 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>17560.51235003984</v>
+        <v>16521.5430011536</v>
       </c>
       <c r="C8">
-        <v>22407.31553791614</v>
+        <v>23122.2968521703</v>
       </c>
     </row>
   </sheetData>
